--- a/Comm100-Work/面试资料/02_面试表格/研发面试评估表_中级开发工程师.xlsx
+++ b/Comm100-Work/面试资料/02_面试表格/研发面试评估表_中级开发工程师.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\MyDocument\Comm100-Work\面试资料\02_面试表格\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -112,7 +112,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -131,7 +131,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -146,7 +146,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -154,7 +154,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -415,35 +415,35 @@
     </xf>
   </cellXfs>
   <cellStyles count="29">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -724,21 +724,21 @@
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="44.875" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="45.625" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="44.125" customWidth="1"/>
-    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:7" ht="30" customHeight="1">
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -763,11 +763,15 @@
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>11</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>15</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
@@ -777,7 +781,9 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>12</v>
+      </c>
       <c r="D5" s="14" t="s">
         <v>16</v>
       </c>
@@ -791,7 +797,9 @@
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>11</v>
+      </c>
       <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
@@ -805,7 +813,9 @@
       <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>11</v>
+      </c>
       <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
@@ -817,7 +827,9 @@
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -827,7 +839,9 @@
       <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>7.5</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
@@ -837,7 +851,9 @@
       <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>7.5</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
@@ -847,7 +863,9 @@
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -859,14 +877,14 @@
       </c>
       <c r="C12" s="10">
         <f>SUM(C4:C11)</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="12">
         <f>SUM(E4:E11)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>3</v>
